--- a/backend/media/Коды.xlsx
+++ b/backend/media/Коды.xlsx
@@ -14,33 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Inv:01660771 Ser:</t>
+  </si>
+  <si>
+    <t>Inv:01660771 Ser:1</t>
+  </si>
+  <si>
+    <t>Inv:01660771 Ser:2</t>
+  </si>
+  <si>
+    <t>Inv:01660771 Ser:3</t>
   </si>
   <si>
     <t>Inv:1010402254 Ser:</t>
   </si>
   <si>
     <t>Inv:410104002006 Ser:</t>
-  </si>
-  <si>
-    <t>Inv:00007598 Ser:</t>
-  </si>
-  <si>
-    <t>Inv:00001145 Ser:</t>
-  </si>
-  <si>
-    <t>Inv:7377 Ser:</t>
-  </si>
-  <si>
-    <t>Inv:571_4 Ser:</t>
-  </si>
-  <si>
-    <t>Inv:13425_4 Ser:</t>
-  </si>
-  <si>
-    <t>Inv:13426_4 Ser:</t>
   </si>
 </sst>
 </file>
@@ -117,7 +108,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="190500"/>
+          <a:off x="1714500" y="190500"/>
           <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -142,7 +133,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Inv:1010402254 Ser:_resize.png"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Inv:01660771 Ser:1_resize.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -155,7 +146,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="762000"/>
+          <a:off x="1714500" y="762000"/>
           <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -180,7 +171,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Inv:410104002006 Ser:_resize.png"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Inv:01660771 Ser:2_resize.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -193,7 +184,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="1333500"/>
+          <a:off x="1714500" y="1333500"/>
           <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -218,7 +209,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="Inv:00007598 Ser:_resize.png"/>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Inv:01660771 Ser:3_resize.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -231,7 +222,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="1905000"/>
+          <a:off x="1714500" y="1905000"/>
           <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -256,7 +247,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="Inv:00001145 Ser:_resize.png"/>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Inv:1010402254 Ser:_resize.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -269,7 +260,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="2476500"/>
+          <a:off x="1714500" y="2476500"/>
           <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -294,7 +285,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="Inv:7377 Ser:_resize.png"/>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Inv:410104002006 Ser:_resize.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -307,121 +298,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="3048000"/>
-          <a:ext cx="571500" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="Inv:571_4 Ser:_resize.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2047875" y="3619500"/>
-          <a:ext cx="571500" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8" descr="Inv:13425_4 Ser:_resize.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2047875" y="4191000"/>
-          <a:ext cx="571500" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9" descr="Inv:13426_4 Ser:_resize.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2047875" y="4762500"/>
+          <a:off x="1714500" y="3048000"/>
           <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -719,13 +596,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A26"/>
+  <dimension ref="A2:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
@@ -758,21 +635,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/backend/media/Коды.xlsx
+++ b/backend/media/Коды.xlsx
@@ -14,24 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Inv:01660771 Ser:</t>
+    <t>Inv:print_1 Ser:123</t>
   </si>
   <si>
-    <t>Inv:01660771 Ser:1</t>
+    <t>Inv:comp_1 Ser:m_1</t>
   </si>
   <si>
-    <t>Inv:01660771 Ser:2</t>
+    <t>Inv:comp_1 Ser:sys_b_1</t>
   </si>
   <si>
-    <t>Inv:01660771 Ser:3</t>
+    <t>Inv:comp_1 Ser:keyboard_1</t>
   </si>
   <si>
-    <t>Inv:1010402254 Ser:</t>
-  </si>
-  <si>
-    <t>Inv:410104002006 Ser:</t>
+    <t>Inv:comp_1 Ser:mouse_1</t>
   </si>
 </sst>
 </file>
@@ -95,7 +92,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Inv:01660771 Ser:_resize.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Inv:print_1 Ser:123_resize.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -133,7 +130,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Inv:01660771 Ser:1_resize.png"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Inv:comp_1 Ser:m_1_resize.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -171,7 +168,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Inv:01660771 Ser:2_resize.png"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Inv:comp_1 Ser:sys_b_1_resize.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -209,7 +206,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="Inv:01660771 Ser:3_resize.png"/>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Inv:comp_1 Ser:keyboard_1_resize.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -247,7 +244,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="Inv:1010402254 Ser:_resize.png"/>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Inv:comp_1 Ser:mouse_1_resize.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -261,44 +258,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1714500" y="2476500"/>
-          <a:ext cx="571500" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="Inv:410104002006 Ser:_resize.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1714500" y="3048000"/>
           <a:ext cx="571500" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -596,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A17"/>
+  <dimension ref="A2:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,11 +589,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
